--- a/data/trans_camb/P25_8-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 9,37</t>
+          <t>-21,36; 10,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 17,17</t>
+          <t>-18,86; 19,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 6,79</t>
+          <t>-23,64; 11,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 37,92</t>
+          <t>-15,38; 18,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 5,0</t>
+          <t>-16,78; 14,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 27,37</t>
+          <t>-12,38; 22,13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 10,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 12,16</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 12,4</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,52%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-26,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,39%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,32; 134,79</t>
+          <t>-86,52; 175,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 218,17</t>
+          <t>-74,56; 242,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 37,49</t>
+          <t>-88,78; 150,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 217,16</t>
+          <t>-47,21; 116,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 35,07</t>
+          <t>-53,35; 92,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 176,17</t>
+          <t>-39,83; 150,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,11; 79,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-46,43; 92,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-52,78; 85,56</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,77</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 6,87</t>
+          <t>-13,79; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 13,61</t>
+          <t>-11,64; 6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,29; -0,57</t>
+          <t>-11,56; 7,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 10,25</t>
+          <t>-16,7; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,73</t>
+          <t>-11,49; 7,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 9,27</t>
+          <t>-8,06; 10,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; -0,09</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 4,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 6,15</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,78%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>-29,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-28,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-2,49%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 50,62</t>
+          <t>-57,24; 19,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 95,89</t>
+          <t>-45,8; 45,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 0,09</t>
+          <t>-48,06; 44,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 48,75</t>
+          <t>-52,8; 6,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 3,91</t>
+          <t>-36,05; 33,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 49,24</t>
+          <t>-26,08; 49,75</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,76; 0,38</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-32,37; 24,01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-27,47; 30,42</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 2,56</t>
+          <t>-18,44; 4,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 3,41</t>
+          <t>-20,28; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 2,0</t>
+          <t>-14,25; 9,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 6,42</t>
+          <t>-15,75; 2,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 0,22</t>
+          <t>-12,31; 8,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 2,75</t>
+          <t>-7,08; 14,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 0,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 2,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 8,69</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-24,59%</t>
+          <t>-23,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-29,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,41%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-27,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,83%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,8%</t>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-25,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-18,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,64; 13,86</t>
+          <t>-52,99; 22,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 18,86</t>
+          <t>-58,86; 18,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 9,24</t>
+          <t>-43,38; 41,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 30,16</t>
+          <t>-53,59; 11,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 1,97</t>
+          <t>-40,65; 37,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 12,4</t>
+          <t>-24,0; 63,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-45,43; 1,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,34; 13,05</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-23,34; 38,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 7,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 44,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 45,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 33,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,04</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,21</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 0,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 3,04</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 4,6</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; -0,38</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 3,78</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 8,76</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; -1,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 1,46</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-25,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-17,92%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-24,03%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,94%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 5,46</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-44,76; 16,28</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 24,78</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-41,27; -1,56</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-31,2; 16,94</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 38,62</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-39,53; -6,76</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,66; 6,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,61; 20,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
